--- a/01_kidsweb/home/kids2/report_tmp/DEBIT NOTE.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/DEBIT NOTE.xlsx
@@ -9,17 +9,57 @@
   <sheets>
     <sheet name="記入例" sheetId="4" r:id="rId1"/>
     <sheet name="項目定義" sheetId="7" r:id="rId2"/>
-    <sheet name="ｆｏｒｍ-blank" sheetId="5" r:id="rId3"/>
+    <sheet name="DEBIT NOTE" sheetId="5" r:id="rId3"/>
     <sheet name="データ設定用" sheetId="8" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'ｆｏｒｍ-blank'!$A$1:$H$46</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEBIT NOTE'!$A$1:$H$46</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">記入例!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">項目定義!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>solcom-ad</author>
+  </authors>
+  <commentList>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行にマスタデータをセット</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>この行から明細データをセット</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -920,7 +960,7 @@
     <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1068,6 +1108,14 @@
     <font>
       <sz val="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1382,13 +1430,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="27" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8613,7 +8661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -9150,11 +9198,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5"/>
@@ -9618,6 +9666,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/01_kidsweb/home/kids2/report_tmp/DEBIT NOTE.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/DEBIT NOTE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom-ad\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDB531A-EB10-4A49-B99E-089D8C0547D2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{787CCD69-6FD6-44D5-BAB9-649557F82194}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="72" windowWidth="12120" windowHeight="8556" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,9 +804,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
-    <numFmt numFmtId="178" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="179" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1193,7 +1193,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
@@ -1202,9 +1202,9 @@
     <xf numFmtId="56" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="178" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1218,35 +1218,35 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1254,7 +1254,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2613,9 +2613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="75" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -2670,7 +2668,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="39">
-        <f>データ設定用!AC3</f>
+        <f>データ設定用!P3</f>
         <v>0</v>
       </c>
     </row>
@@ -3153,8 +3151,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
